--- a/biology/Botanique/Erysiphales/Erysiphales.xlsx
+++ b/biology/Botanique/Erysiphales/Erysiphales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erysiphaceae sont une famille de champignons ascomycètes. C'est l'unique famille de  l'ordre des Erysiphales.  Elle comprend 28 genres et approximativement 100 espèces.
 De nombreuses espèces d'Erysiphaceae sont des agents pathogènes des plantes, responsables des diverses formes d'oïdium ou « maladie du blanc ».
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 octobre 2014) :
 genre Arthrocladiella
 genre Blumeria
 genre Brasiliomyces
@@ -576,9 +590,11 @@
           <t>Liste des genres, espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (11 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (11 octobre 2014) :
 genre Arthrocladiella
 Arthrocladiella mougeotii
 genre Blumeria
